--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_flower_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_flower_1_1.xlsx
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Podenco"]  That’s wonderful!
+    <t xml:space="preserve">[name="Podenco"]  That's wonderful!
 </t>
   </si>
   <si>
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Perfumer"]  Mhmm, it’s me.
+    <t xml:space="preserve">[name="Perfumer"]  Mhmm, it's me.
 </t>
   </si>
   <si>
